--- a/data/trans_bre/P24_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,17 +636,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,22 +656,32 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>88,52%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>91,62%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,17 +694,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 9,78</t>
+          <t>0,0; 13,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,0</t>
+          <t>0,0; 11,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 8,89</t>
+          <t>-7,16; 12,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +714,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-62,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,78%</t>
+          <t>-58,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,96%</t>
+          <t>-57,97%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22,17%</t>
         </is>
       </c>
     </row>
@@ -768,27 +814,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 1,52</t>
+          <t>-15,01; 4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 6,83</t>
+          <t>-15,93; 3,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 4,11</t>
+          <t>-9,62; 8,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,94; 10,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +844,22 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,4; 226,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 411,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-85,57; —</t>
         </is>
       </c>
     </row>
@@ -820,17 +876,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +896,32 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-34,07%</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>77,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>218,95%</t>
+          <t>-4,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>62,3%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26,58%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 2,71</t>
+          <t>-3,28; 5,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,59</t>
+          <t>-9,29; 5,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 8,66</t>
+          <t>0,0; 8,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 7,75</t>
+          <t>-4,99; 8,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,06; 13,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,89; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,38; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 431,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-80,3; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-86,45; 770,72</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,53%</t>
+          <t>51,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-23,82%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>141,21%</t>
+          <t>-43,69%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>106,51%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>157,58%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 6,46</t>
+          <t>-4,3; 8,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 7,47</t>
+          <t>-3,74; 10,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 4,34</t>
+          <t>-17,58; 3,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 8,9</t>
+          <t>-3,16; 10,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,9; 374,9</t>
+          <t>0,25; 17,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,18; 391,97</t>
+          <t>-69,14; 835,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,58; 73,91</t>
+          <t>-54,53; 670,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 787,7</t>
+          <t>-81,59; 41,51</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-64,66; 1072,87</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-12,45; 994,67</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-67,15%</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-44,91%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>-22,71%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-40,19%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35,26%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 1,45</t>
+          <t>-11,03; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 9,88</t>
+          <t>-7,89; 13,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 2,28</t>
+          <t>-12,76; 8,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 13,14</t>
+          <t>-14,33; 7,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,97; 20,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-58,55; 234,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-76,62; 38,87</t>
+          <t>-72,72; 427,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,31; 224,0</t>
+          <t>-85,49; 223,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-99,4; 258,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-42,45; 221,94</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>-9,28</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>16,68</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>-73,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>-27,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>-34,13%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-50,88%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>159,42%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 8,17</t>
+          <t>-18,19; 2,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 20,33</t>
+          <t>-17,86; 9,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 8,56</t>
+          <t>-13,92; 8,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 15,0</t>
+          <t>-26,92; 5,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,43; 423,95</t>
+          <t>-2,3; 44,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 412,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-69,78; 285,35</t>
+          <t>-85,68; 235,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,74; 219,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-91,16; 92,13</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-46,28; 1354,44</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-7,09%</t>
+          <t>-5,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>-32,53%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-4,99%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>88,84%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,12</t>
+          <t>-2,29; 2,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,5</t>
+          <t>-3,76; 3,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,44</t>
+          <t>-6,65; 0,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,42</t>
+          <t>-4,09; 3,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 93,45</t>
+          <t>1,19; 13,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 126,92</t>
+          <t>-57,6; 150,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 42,69</t>
+          <t>-47,09; 82,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 144,55</t>
+          <t>-62,62; 18,74</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-49,85; 81,05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6,98; 267,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
